--- a/Arshath_AzentioULSFramework/Test-data/UlsTestDataDesign.xlsx
+++ b/Arshath_AzentioULSFramework/Test-data/UlsTestDataDesign.xlsx
@@ -3,22 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inindc00075\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E35C920-0431-4D70-AB14-AC0C5181FE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE64F15-51BB-4C79-95B6-67923B724036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllMastersTestDataInfo" sheetId="7" r:id="rId1"/>
     <sheet name="AllMasterInstructions" sheetId="6" r:id="rId2"/>
     <sheet name="AssetAutoMasterTestData" sheetId="4" r:id="rId3"/>
     <sheet name="WarehouseMasterTestData" sheetId="9" r:id="rId4"/>
-    <sheet name="LoginCredentilas" sheetId="3" r:id="rId5"/>
-    <sheet name="ReportMasterTestData" sheetId="8" r:id="rId6"/>
+    <sheet name="AllocationMasterTestData" sheetId="10" r:id="rId5"/>
+    <sheet name="CollateralSubTypeTestData" sheetId="11" r:id="rId6"/>
+    <sheet name="Logincredentials" sheetId="3" r:id="rId7"/>
+    <sheet name="ReportMasterTestData" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="463">
   <si>
     <t>Reference ID</t>
   </si>
@@ -212,9 +214,6 @@
   </si>
   <si>
     <t>Password</t>
-  </si>
-  <si>
-    <t>in00135</t>
   </si>
   <si>
     <t>admin</t>
@@ -815,12 +814,6 @@
     <t>AT-WHM-T001_D2</t>
   </si>
   <si>
-    <t>SBI_DESC</t>
-  </si>
-  <si>
-    <t>SBI_ADDRESS</t>
-  </si>
-  <si>
     <t>INDIA</t>
   </si>
   <si>
@@ -863,33 +856,12 @@
     <t>AT-WHM-T002_D1</t>
   </si>
   <si>
-    <t>PNB_DESC</t>
-  </si>
-  <si>
-    <t>PNB_ADDRESS</t>
-  </si>
-  <si>
-    <t>Yavatmal</t>
-  </si>
-  <si>
     <t>PIN57938</t>
   </si>
   <si>
-    <t>pnb@gmail.com</t>
-  </si>
-  <si>
     <t>AT-WHM-T003_D1</t>
   </si>
   <si>
-    <t>KVB_DESC</t>
-  </si>
-  <si>
-    <t>KVB_ADDRESS</t>
-  </si>
-  <si>
-    <t>kvb@gmail.com</t>
-  </si>
-  <si>
     <t>AT-WHM-T004</t>
   </si>
   <si>
@@ -911,12 +883,6 @@
     <t>AT-WHM-T006_D1</t>
   </si>
   <si>
-    <t>Modify_SBIDesc</t>
-  </si>
-  <si>
-    <t>Mofify_SBIAddress</t>
-  </si>
-  <si>
     <t>TMB_Mdfy_Description</t>
   </si>
   <si>
@@ -986,12 +952,6 @@
     <t>AT-WHM-T005_D2</t>
   </si>
   <si>
-    <t>Re_Modify_SBIDesc</t>
-  </si>
-  <si>
-    <t>Re_Mofify_SBIAddress</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Search data output</t>
   </si>
   <si>
@@ -1008,6 +968,471 @@
   </si>
   <si>
     <t>WarehouseDataFile</t>
+  </si>
+  <si>
+    <t>Modify_HNKDesc</t>
+  </si>
+  <si>
+    <t>Mofify_HNKAddress</t>
+  </si>
+  <si>
+    <t>Re_Modify_HNKDesc</t>
+  </si>
+  <si>
+    <t>Re_Mofify_HNKAddress</t>
+  </si>
+  <si>
+    <t>Reject_ADDRESS</t>
+  </si>
+  <si>
+    <t>Return_ADDRESS</t>
+  </si>
+  <si>
+    <t>reject@gmail.com</t>
+  </si>
+  <si>
+    <t>return@gmail.com</t>
+  </si>
+  <si>
+    <t>AT-ALM-001</t>
+  </si>
+  <si>
+    <t>AT-ALM-002</t>
+  </si>
+  <si>
+    <t>AT-ALM-003</t>
+  </si>
+  <si>
+    <t>AT-ALM-004</t>
+  </si>
+  <si>
+    <t>AT-ALM-001_D1</t>
+  </si>
+  <si>
+    <t>AT-ALM-002_D1</t>
+  </si>
+  <si>
+    <t>AT-ALM-003_D1</t>
+  </si>
+  <si>
+    <t>AT-ALM-004_D1</t>
+  </si>
+  <si>
+    <t>Allocation code</t>
+  </si>
+  <si>
+    <t>Allocation Based On</t>
+  </si>
+  <si>
+    <t>Level No</t>
+  </si>
+  <si>
+    <t>Order By</t>
+  </si>
+  <si>
+    <t>Demo22</t>
+  </si>
+  <si>
+    <t>Product Based</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>in02256</t>
+  </si>
+  <si>
+    <t>AT-ALM-005</t>
+  </si>
+  <si>
+    <t>AT-ALM-005_D1</t>
+  </si>
+  <si>
+    <t>Allocation</t>
+  </si>
+  <si>
+    <t>AT-ALM-012</t>
+  </si>
+  <si>
+    <t>AT-ALM-012_D1</t>
+  </si>
+  <si>
+    <t>AT-ALM-013</t>
+  </si>
+  <si>
+    <t>AT-ALM-013_D1</t>
+  </si>
+  <si>
+    <t>AT-ALM-014</t>
+  </si>
+  <si>
+    <t>AT-ALM-014_D1</t>
+  </si>
+  <si>
+    <t>AT-ALM-016</t>
+  </si>
+  <si>
+    <t>AT-ALM-016_D1</t>
+  </si>
+  <si>
+    <t>Field verification</t>
+  </si>
+  <si>
+    <t>Required field</t>
+  </si>
+  <si>
+    <t>Alphanumeric characters allowed</t>
+  </si>
+  <si>
+    <t>Invalid Data1</t>
+  </si>
+  <si>
+    <t>Invalid Data2</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>ASDF</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>AllocationMasterFormDataFile.pdf</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Showing 0 to 0 of 0 entries</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Unmatch</t>
+  </si>
+  <si>
+    <t>Allocation master home loan</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>AT-ALM-006</t>
+  </si>
+  <si>
+    <t>AT-ALM-007</t>
+  </si>
+  <si>
+    <t>AT-ALM-008</t>
+  </si>
+  <si>
+    <t>AT-ALM-006_D1</t>
+  </si>
+  <si>
+    <t>AT-ALM-007_D1</t>
+  </si>
+  <si>
+    <t>AT-ALM-008_D1</t>
+  </si>
+  <si>
+    <t>DescU1</t>
+  </si>
+  <si>
+    <t>ALLOCATION_MST</t>
+  </si>
+  <si>
+    <t>Done12</t>
+  </si>
+  <si>
+    <t>SpecialCharacterVerification</t>
+  </si>
+  <si>
+    <t>SpecialCharacterInput</t>
+  </si>
+  <si>
+    <t>!@#$</t>
+  </si>
+  <si>
+    <t>AT-ACS-T001</t>
+  </si>
+  <si>
+    <t>AT-ACS-T001_D1</t>
+  </si>
+  <si>
+    <t>LEGMOR</t>
+  </si>
+  <si>
+    <t>COLL_SUB_TYPE</t>
+  </si>
+  <si>
+    <t>AT-ACS-T002</t>
+  </si>
+  <si>
+    <t>AT-ACS-T002_D2</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>CHATMOR</t>
+  </si>
+  <si>
+    <t>AT-ACS-T003</t>
+  </si>
+  <si>
+    <t>AT-ACS-T003_D3</t>
+  </si>
+  <si>
+    <t>SHAR</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>AT-ACS-T004</t>
+  </si>
+  <si>
+    <t>AT-ACS-T004_D4</t>
+  </si>
+  <si>
+    <t>AT-ACS-T005</t>
+  </si>
+  <si>
+    <t>AT-ACS-T005_D5</t>
+  </si>
+  <si>
+    <t>AT-ACS-T006</t>
+  </si>
+  <si>
+    <t>AT-ACS-T006_D6</t>
+  </si>
+  <si>
+    <t>AT-ACS-T007</t>
+  </si>
+  <si>
+    <t>AT-ACS-T007_D7</t>
+  </si>
+  <si>
+    <t>AT-ACS-T008</t>
+  </si>
+  <si>
+    <t>AT-ACS-T008_D8</t>
+  </si>
+  <si>
+    <t>AT-ACS-T009</t>
+  </si>
+  <si>
+    <t>AT-ACS-T009_D9</t>
+  </si>
+  <si>
+    <t>AT-ACS-T010</t>
+  </si>
+  <si>
+    <t>AT-ACS-T010_D10</t>
+  </si>
+  <si>
+    <t>AT-ACS-T011</t>
+  </si>
+  <si>
+    <t>AT-ACS-T011_D11</t>
+  </si>
+  <si>
+    <t>AT-ACS-T012</t>
+  </si>
+  <si>
+    <t>AT-ACS-T012_D12</t>
+  </si>
+  <si>
+    <t>AT-ACS-T013</t>
+  </si>
+  <si>
+    <t>AT-ACS-T013_D13</t>
+  </si>
+  <si>
+    <t>AT-ACS-T014</t>
+  </si>
+  <si>
+    <t>AT-ACS-T014_D14</t>
+  </si>
+  <si>
+    <t>AT-ACS-T015</t>
+  </si>
+  <si>
+    <t>AT-ACS-T015_D15</t>
+  </si>
+  <si>
+    <t>Asset/Collateral subtype code</t>
+  </si>
+  <si>
+    <t>Asset/Collateral Type</t>
+  </si>
+  <si>
+    <t>Asset/Collateral Valuation Tollerance</t>
+  </si>
+  <si>
+    <t>Searh Value in Inbox</t>
+  </si>
+  <si>
+    <t>####</t>
+  </si>
+  <si>
+    <t>Exposure</t>
+  </si>
+  <si>
+    <t>LIEN</t>
+  </si>
+  <si>
+    <t>Select</t>
+  </si>
+  <si>
+    <t>Asset_CollateralSubtypeCode</t>
+  </si>
+  <si>
+    <t>Asset_CollateralSubtypeCodeForReject</t>
+  </si>
+  <si>
+    <t>Asset_CollateralSubtypeCodeForReturn</t>
+  </si>
+  <si>
+    <t>UpdatedAsset_CollateralSubtypeCodeForApprove</t>
+  </si>
+  <si>
+    <t>updatedAsset_CollateralSubtypeCodeForReject</t>
+  </si>
+  <si>
+    <t>updatedAsset_CollateralSubtypeCodeForReturn</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
+  </si>
+  <si>
+    <t>asdfgh</t>
+  </si>
+  <si>
+    <t>Conditioner</t>
+  </si>
+  <si>
+    <t>SSD1</t>
+  </si>
+  <si>
+    <t>UPD1</t>
+  </si>
+  <si>
+    <t>Sample1</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>672</t>
+  </si>
+  <si>
+    <t>BNK_DESC</t>
+  </si>
+  <si>
+    <t>BNK_ADDRESS</t>
+  </si>
+  <si>
+    <t>682</t>
+  </si>
+  <si>
+    <t>683</t>
+  </si>
+  <si>
+    <t>684</t>
+  </si>
+  <si>
+    <t>686</t>
+  </si>
+  <si>
+    <t>687</t>
+  </si>
+  <si>
+    <t>690</t>
+  </si>
+  <si>
+    <t>691</t>
+  </si>
+  <si>
+    <t>692</t>
+  </si>
+  <si>
+    <t>694</t>
+  </si>
+  <si>
+    <t>695</t>
+  </si>
+  <si>
+    <t>697</t>
+  </si>
+  <si>
+    <t>698</t>
+  </si>
+  <si>
+    <t>699</t>
+  </si>
+  <si>
+    <t>701</t>
+  </si>
+  <si>
+    <t>702</t>
+  </si>
+  <si>
+    <t>ssk</t>
+  </si>
+  <si>
+    <t>703</t>
+  </si>
+  <si>
+    <t>704</t>
+  </si>
+  <si>
+    <t>705</t>
+  </si>
+  <si>
+    <t>707</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>710</t>
+  </si>
+  <si>
+    <t>711</t>
+  </si>
+  <si>
+    <t>712</t>
+  </si>
+  <si>
+    <t>714</t>
+  </si>
+  <si>
+    <t>715</t>
+  </si>
+  <si>
+    <t>717</t>
+  </si>
+  <si>
+    <t>718</t>
+  </si>
+  <si>
+    <t>719</t>
+  </si>
+  <si>
+    <t>721</t>
+  </si>
+  <si>
+    <t>722</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1056,8 +1481,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1112,8 +1558,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFBFBF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1175,6 +1657,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1183,7 +1676,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1299,7 +1792,87 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="11" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1647,53 +2220,53 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="61.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="11" customWidth="1"/>
-    <col min="7" max="7" width="4.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" hidden="true" width="21.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" hidden="true" width="0.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="11" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" hidden="true" width="4.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="12" t="s">
         <v>111</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D2" s="16" t="str">
         <f>CONCATENATE(E2,"-",TEXT(F2,"DD-MM-YYYY"))</f>
         <v>AssetAutoMaster_TD-03-10-2022</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F2" s="17">
         <v>44837</v>
@@ -1704,7 +2277,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -1713,7 +2286,7 @@
         <v>ProductMaster_TD-27-09-2022</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F3" s="17">
         <v>44831</v>
@@ -1721,7 +2294,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1730,7 +2303,7 @@
         <v>ReportMaster_TD-10-10-2022</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F4" s="48">
         <v>44844</v>
@@ -1849,10 +2422,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>26</v>
@@ -1861,37 +2434,37 @@
     <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1910,44 +2483,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="26" style="18" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="24.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="8.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" customWidth="true" style="1" width="12.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="15.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="31" width="12.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="18" width="20.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="18" width="12.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="18" width="7.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="18" width="17.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="18" width="20.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="18" width="20.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="18" width="16.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="18" width="14.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="18" width="16.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="18" width="21.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="18" width="25.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="18" width="21.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="18" width="24.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="18" width="11.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="18" width="22.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="18" width="10.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="18" width="14.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="18" width="26.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="18" width="17.5703125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="18" width="10.140625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="18" width="16.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="18" width="24.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="18" width="24.140625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="18" width="8.5703125" collapsed="true"/>
+    <col min="30" max="16384" style="18" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>64</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>0</v>
@@ -2036,12 +2609,12 @@
         <v>27</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="6"/>
       <c r="E2" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F2" s="21" t="s">
         <v>28</v>
@@ -2081,18 +2654,18 @@
         <v>27</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="6"/>
       <c r="E3" s="21" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H3" s="22" t="s">
         <v>30</v>
@@ -2126,18 +2699,18 @@
         <v>27</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="6"/>
       <c r="E4" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G4" s="21" t="s">
         <v>77</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>78</v>
       </c>
       <c r="H4" s="22" t="s">
         <v>30</v>
@@ -2171,7 +2744,7 @@
         <v>32</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="30">
         <v>908</v>
@@ -2210,7 +2783,7 @@
         <v>34</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="30">
         <v>910</v>
@@ -2249,7 +2822,7 @@
         <v>36</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="30">
         <v>911</v>
@@ -2288,7 +2861,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C8" s="30"/>
       <c r="D8" s="6"/>
@@ -2298,13 +2871,13 @@
       <c r="H8" s="22"/>
       <c r="I8" s="27"/>
       <c r="J8" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K8" s="21" t="s">
         <v>28</v>
       </c>
       <c r="L8" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M8" s="22" t="s">
         <v>37</v>
@@ -2331,7 +2904,7 @@
         <v>38</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="6"/>
@@ -2341,13 +2914,13 @@
       <c r="H9" s="22"/>
       <c r="I9" s="27"/>
       <c r="J9" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="K9" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="K9" s="21" t="s">
-        <v>80</v>
-      </c>
       <c r="L9" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M9" s="22" t="s">
         <v>37</v>
@@ -2374,7 +2947,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="6"/>
@@ -2384,13 +2957,13 @@
       <c r="H10" s="22"/>
       <c r="I10" s="27"/>
       <c r="J10" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M10" s="22" t="s">
         <v>37</v>
@@ -2417,7 +2990,7 @@
         <v>39</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C11" s="30">
         <v>908</v>
@@ -2456,7 +3029,7 @@
         <v>40</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C12" s="30">
         <v>910</v>
@@ -2495,7 +3068,7 @@
         <v>41</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="30">
         <v>911</v>
@@ -2534,7 +3107,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="30"/>
       <c r="D14" s="6"/>
@@ -2579,7 +3152,7 @@
         <v>52</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="30"/>
       <c r="D15" s="6"/>
@@ -2601,16 +3174,16 @@
         <v>48</v>
       </c>
       <c r="T15" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="U15" s="22">
         <v>2015</v>
       </c>
       <c r="V15" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W15" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="X15" s="21" t="s">
         <v>49</v>
@@ -2628,7 +3201,7 @@
         <v>10</v>
       </c>
       <c r="AC15" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" spans="1:29" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2636,7 +3209,7 @@
         <v>52</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="30"/>
       <c r="D16" s="6"/>
@@ -2658,23 +3231,23 @@
         <v>48</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="U16" s="22"/>
       <c r="V16" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="W16" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="W16" s="21" t="s">
-        <v>88</v>
-      </c>
       <c r="X16" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Y16" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Z16" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA16" s="22">
         <v>40</v>
@@ -2683,7 +3256,7 @@
         <v>20</v>
       </c>
       <c r="AC16" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:29" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2691,7 +3264,7 @@
         <v>52</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="6"/>
@@ -2713,23 +3286,23 @@
         <v>48</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="U17" s="22"/>
       <c r="V17" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="W17" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="X17" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Y17" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z17" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AA17" s="22">
         <v>50</v>
@@ -2738,7 +3311,7 @@
         <v>30</v>
       </c>
       <c r="AC17" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:29" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -2746,7 +3319,7 @@
         <v>53</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="30">
         <v>908</v>
@@ -2785,7 +3358,7 @@
         <v>54</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C19" s="30">
         <v>910</v>
@@ -2821,10 +3394,10 @@
     </row>
     <row r="20" spans="1:29" s="16" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="30">
         <v>911</v>
@@ -2899,37 +3472,37 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="54" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="54" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.7109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8" style="54" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="54" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" style="54" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.85546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="54" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="29.42578125" style="54" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.85546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="17" style="54"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="54" width="15.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="54" width="19.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="54" width="12.7734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="54" width="10.59375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="54" width="28.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="54" width="25.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="54" width="8.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="54" width="10.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="54" width="9.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="54" width="9.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="54" width="11.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="9" width="20.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="54" width="18.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="54" width="14.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="54" width="19.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="54" width="29.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="54" width="17.85546875" collapsed="true"/>
+    <col min="18" max="16384" style="54" width="17.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>64</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>0</v>
@@ -2938,49 +3511,49 @@
         <v>1</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>20</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I1" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J1" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="25" t="s">
         <v>250</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
         <v>252</v>
       </c>
-      <c r="N1" s="26" t="s">
-        <v>253</v>
-      </c>
       <c r="O1" s="26" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="P1" s="26" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="Q1" s="26" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="R1" s="26" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="S1" s="26" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="T1" s="26"/>
       <c r="U1" s="26"/>
@@ -2992,42 +3565,46 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="B2" s="50" t="s">
-        <v>255</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
+      <c r="C2" s="51" t="s">
+        <v>462</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>33</v>
+      </c>
       <c r="E2" s="52" t="s">
+        <v>430</v>
+      </c>
+      <c r="F2" s="52" t="s">
+        <v>431</v>
+      </c>
+      <c r="G2" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="53" t="s">
         <v>257</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="I2" s="53" t="s">
         <v>258</v>
       </c>
-      <c r="G2" s="53" t="s">
+      <c r="J2" s="53" t="s">
         <v>259</v>
-      </c>
-      <c r="H2" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="I2" s="53" t="s">
-        <v>261</v>
-      </c>
-      <c r="J2" s="53" t="s">
-        <v>262</v>
       </c>
       <c r="K2" s="52">
         <v>9876543210</v>
       </c>
-      <c r="L2" s="52">
+      <c r="L2" s="55">
         <v>4654321</v>
       </c>
       <c r="M2" s="49" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="N2" s="52" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O2" s="52"/>
       <c r="P2" s="52"/>
@@ -3037,42 +3614,42 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B3" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" s="51"/>
       <c r="D3" s="51"/>
       <c r="E3" s="52" t="s">
+        <v>262</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>256</v>
+      </c>
+      <c r="H3" s="53" t="s">
+        <v>264</v>
+      </c>
+      <c r="I3" s="53" t="s">
         <v>265</v>
       </c>
-      <c r="F3" s="52" t="s">
-        <v>266</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>267</v>
-      </c>
-      <c r="I3" s="53" t="s">
-        <v>268</v>
-      </c>
       <c r="J3" s="53" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="K3" s="52">
         <v>9638527410</v>
       </c>
-      <c r="L3" s="52">
+      <c r="L3" s="55">
         <v>4987654</v>
       </c>
       <c r="M3" s="49" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="N3" s="52" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O3" s="52"/>
       <c r="P3" s="52"/>
@@ -3082,43 +3659,27 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C4" s="51"/>
       <c r="D4" s="51"/>
-      <c r="E4" s="52" t="s">
-        <v>273</v>
-      </c>
+      <c r="E4" s="52"/>
       <c r="F4" s="52" t="s">
-        <v>274</v>
-      </c>
-      <c r="G4" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>260</v>
-      </c>
-      <c r="I4" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="J4" s="53" t="s">
-        <v>276</v>
-      </c>
-      <c r="K4" s="52">
-        <v>7894651230</v>
-      </c>
-      <c r="L4" s="52">
-        <v>4852741</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="55"/>
       <c r="M4" s="49" t="s">
-        <v>277</v>
-      </c>
-      <c r="N4" s="52" t="s">
-        <v>264</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N4" s="52"/>
       <c r="O4" s="52"/>
       <c r="P4" s="52"/>
       <c r="Q4" s="52"/>
@@ -3127,43 +3688,27 @@
     </row>
     <row r="5" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="50" t="s">
         <v>271</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>278</v>
       </c>
       <c r="C5" s="51"/>
       <c r="D5" s="51"/>
-      <c r="E5" s="52" t="s">
-        <v>279</v>
-      </c>
+      <c r="E5" s="52"/>
       <c r="F5" s="52" t="s">
-        <v>280</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>267</v>
-      </c>
-      <c r="I5" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="J5" s="53" t="s">
-        <v>262</v>
-      </c>
-      <c r="K5" s="52">
-        <v>8529637410</v>
-      </c>
-      <c r="L5" s="52">
-        <v>46852741</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="55"/>
       <c r="M5" s="49" t="s">
-        <v>281</v>
-      </c>
-      <c r="N5" s="52" t="s">
-        <v>264</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N5" s="52"/>
       <c r="O5" s="52"/>
       <c r="P5" s="52"/>
       <c r="Q5" s="52"/>
@@ -3172,10 +3717,10 @@
     </row>
     <row r="6" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C6" s="51"/>
       <c r="D6" s="51"/>
@@ -3186,9 +3731,9 @@
       <c r="I6" s="53"/>
       <c r="J6" s="53"/>
       <c r="K6" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="L6" s="52"/>
+        <v>276</v>
+      </c>
+      <c r="L6" s="55"/>
       <c r="M6" s="49"/>
       <c r="N6" s="52"/>
       <c r="O6" s="52"/>
@@ -3199,25 +3744,25 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C7" s="51"/>
       <c r="D7" s="51"/>
       <c r="E7" s="52" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
       <c r="F7" s="52" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="G7" s="53"/>
       <c r="H7" s="53"/>
       <c r="I7" s="53"/>
       <c r="J7" s="53"/>
       <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
+      <c r="L7" s="55"/>
       <c r="M7" s="52"/>
       <c r="N7" s="52"/>
       <c r="O7" s="52"/>
@@ -3228,25 +3773,25 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="C8" s="51"/>
       <c r="D8" s="51"/>
       <c r="E8" s="52" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G8" s="53"/>
       <c r="H8" s="53"/>
       <c r="I8" s="53"/>
       <c r="J8" s="53"/>
       <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
+      <c r="L8" s="55"/>
       <c r="M8" s="52"/>
       <c r="N8" s="52"/>
       <c r="O8" s="52"/>
@@ -3257,27 +3802,25 @@
     </row>
     <row r="9" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C9" s="51"/>
       <c r="D9" s="51"/>
       <c r="E9" s="52" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
       <c r="F9" s="52" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="G9" s="53"/>
       <c r="H9" s="53"/>
       <c r="I9" s="53"/>
       <c r="J9" s="53"/>
       <c r="K9" s="52"/>
-      <c r="L9" s="55">
-        <v>1.23456789987654E+53</v>
-      </c>
+      <c r="L9" s="56"/>
       <c r="M9" s="52"/>
       <c r="N9" s="52"/>
       <c r="O9" s="52"/>
@@ -3288,25 +3831,27 @@
     </row>
     <row r="10" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="C10" s="51"/>
       <c r="D10" s="51"/>
       <c r="E10" s="52" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="G10" s="53"/>
       <c r="H10" s="53"/>
       <c r="I10" s="53"/>
       <c r="J10" s="53"/>
       <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
+      <c r="L10" s="55">
+        <v>2.1365498765432101E+69</v>
+      </c>
       <c r="M10" s="52"/>
       <c r="N10" s="52"/>
       <c r="O10" s="52"/>
@@ -3317,25 +3862,25 @@
     </row>
     <row r="11" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="B11" s="50" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
       <c r="C11" s="51"/>
       <c r="D11" s="51"/>
       <c r="E11" s="52" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="F11" s="52" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="G11" s="53"/>
       <c r="H11" s="53"/>
       <c r="I11" s="53"/>
       <c r="J11" s="53"/>
       <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
+      <c r="L11" s="55"/>
       <c r="M11" s="52"/>
       <c r="N11" s="52"/>
       <c r="O11" s="52"/>
@@ -3346,10 +3891,10 @@
     </row>
     <row r="12" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B12" s="50" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="C12" s="51"/>
       <c r="D12" s="51"/>
@@ -3360,7 +3905,7 @@
       <c r="I12" s="53"/>
       <c r="J12" s="53"/>
       <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
+      <c r="L12" s="55"/>
       <c r="M12" s="52"/>
       <c r="N12" s="52"/>
       <c r="O12" s="52"/>
@@ -3371,10 +3916,10 @@
     </row>
     <row r="13" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="C13" s="51"/>
       <c r="D13" s="51"/>
@@ -3385,7 +3930,7 @@
       <c r="I13" s="53"/>
       <c r="J13" s="53"/>
       <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
+      <c r="L13" s="55"/>
       <c r="M13" s="52"/>
       <c r="N13" s="52"/>
       <c r="O13" s="52"/>
@@ -3396,10 +3941,10 @@
     </row>
     <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="50" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B14" s="50" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C14" s="51"/>
       <c r="D14" s="51"/>
@@ -3410,27 +3955,27 @@
       <c r="I14" s="53"/>
       <c r="J14" s="53"/>
       <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
+      <c r="L14" s="55"/>
       <c r="M14" s="52"/>
       <c r="N14" s="52"/>
       <c r="O14" s="52" t="s">
-        <v>257</v>
+        <v>430</v>
       </c>
       <c r="P14" s="52" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q14" s="52" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="R14" s="52"/>
       <c r="S14" s="52"/>
     </row>
     <row r="15" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="50" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="51"/>
@@ -3441,7 +3986,7 @@
       <c r="I15" s="53"/>
       <c r="J15" s="53"/>
       <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
+      <c r="L15" s="55"/>
       <c r="M15" s="52"/>
       <c r="N15" s="52"/>
       <c r="O15" s="52"/>
@@ -3452,10 +3997,10 @@
     </row>
     <row r="16" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="50" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
@@ -3466,21 +4011,21 @@
       <c r="I16" s="53"/>
       <c r="J16" s="53"/>
       <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
+      <c r="L16" s="55"/>
       <c r="M16" s="52"/>
       <c r="N16" s="52"/>
       <c r="O16" s="52" t="s">
-        <v>257</v>
+        <v>430</v>
       </c>
       <c r="P16" s="52" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q16" s="52"/>
       <c r="R16" s="52" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="S16" s="52" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3501,8 +4046,8 @@
   <hyperlinks>
     <hyperlink ref="M2" r:id="rId1" xr:uid="{E3DE844D-8CEB-4831-BDAE-84773E1130E7}"/>
     <hyperlink ref="M3" r:id="rId2" xr:uid="{1B5B36CE-E34D-4D25-8F7C-FEE8F1B3395E}"/>
-    <hyperlink ref="M4" r:id="rId3" xr:uid="{14E7F941-AECC-4A81-9BAE-FF069E8C48A9}"/>
-    <hyperlink ref="M5" r:id="rId4" xr:uid="{C9F09BB9-11F5-4E85-AF47-EA8B0C9DD1AD}"/>
+    <hyperlink ref="M4" r:id="rId3" xr:uid="{A78C2D36-54AF-4C49-AAC4-EC42641391E2}"/>
+    <hyperlink ref="M5" r:id="rId4" xr:uid="{CDE1309C-EAB0-4755-9C6F-E28A0DDC44C6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
@@ -3510,16 +4055,1122 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AA9EF5-1531-47B6-96DF-72EF8CA2EA66}">
+  <dimension ref="A1:T23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="12.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="16.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="9" width="12.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="11.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="9" width="14.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="9" width="19.0" collapsed="true"/>
+    <col min="8" max="9" bestFit="true" customWidth="true" style="9" width="8.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="9" width="10.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="9" width="16.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="9" width="16.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="9" width="20.0" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="9" width="14.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="9" width="16.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="9" width="32.28515625" collapsed="true"/>
+    <col min="17" max="18" bestFit="true" customWidth="true" style="9" width="24.5703125" collapsed="true"/>
+    <col min="19" max="20" customWidth="true" style="9" width="15.42578125" collapsed="true"/>
+    <col min="21" max="16384" style="9" width="9.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>324</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>325</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>326</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>327</v>
+      </c>
+      <c r="J1" s="59" t="s">
+        <v>330</v>
+      </c>
+      <c r="K1" s="60" t="s">
+        <v>344</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>347</v>
+      </c>
+      <c r="M1" s="60" t="s">
+        <v>348</v>
+      </c>
+      <c r="N1" s="58" t="s">
+        <v>355</v>
+      </c>
+      <c r="O1" s="58" t="s">
+        <v>356</v>
+      </c>
+      <c r="P1" s="58" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q1" s="58" t="s">
+        <v>353</v>
+      </c>
+      <c r="R1" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="58" t="s">
+        <v>368</v>
+      </c>
+      <c r="T1" s="58" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="68" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" s="68">
+        <v>4656556</v>
+      </c>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68" t="s">
+        <v>335</v>
+      </c>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="61" t="s">
+        <v>317</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>331</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+    </row>
+    <row r="4" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+    </row>
+    <row r="5" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="63" t="s">
+        <v>319</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="68"/>
+      <c r="T5" s="68"/>
+    </row>
+    <row r="6" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="63" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>334</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68" t="s">
+        <v>345</v>
+      </c>
+      <c r="L6" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="M6" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+    </row>
+    <row r="7" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="63" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="68" t="s">
+        <v>365</v>
+      </c>
+      <c r="F7" s="68">
+        <v>98</v>
+      </c>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="68" t="s">
+        <v>366</v>
+      </c>
+      <c r="K7" s="68"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="Q7" s="68"/>
+      <c r="R7" s="68"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="68"/>
+    </row>
+    <row r="8" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="63" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="68" t="s">
+        <v>367</v>
+      </c>
+      <c r="F8" s="68">
+        <v>10254</v>
+      </c>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="68" t="s">
+        <v>366</v>
+      </c>
+      <c r="K8" s="68"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68" t="s">
+        <v>95</v>
+      </c>
+      <c r="S8" s="68"/>
+      <c r="T8" s="68"/>
+    </row>
+    <row r="9" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
+        <v>361</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="Q9" s="68"/>
+      <c r="R9" s="68"/>
+      <c r="S9" s="68" t="s">
+        <v>346</v>
+      </c>
+      <c r="T9" s="68" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="63" t="s">
+        <v>336</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="O10" s="68" t="s">
+        <v>350</v>
+      </c>
+      <c r="P10" s="68" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q10" s="68" t="s">
+        <v>354</v>
+      </c>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+    </row>
+    <row r="11" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="63" t="s">
+        <v>338</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>339</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68" t="s">
+        <v>349</v>
+      </c>
+      <c r="O11" s="68" t="s">
+        <v>350</v>
+      </c>
+      <c r="P11" s="68" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q11" s="68" t="s">
+        <v>354</v>
+      </c>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+    </row>
+    <row r="12" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="63" t="s">
+        <v>340</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>341</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="68" t="s">
+        <v>357</v>
+      </c>
+      <c r="O12" s="68" t="s">
+        <v>350</v>
+      </c>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="63" t="s">
+        <v>342</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68" t="s">
+        <v>329</v>
+      </c>
+      <c r="H13" s="68">
+        <v>123</v>
+      </c>
+      <c r="I13" s="69" t="s">
+        <v>358</v>
+      </c>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="64"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="64"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="64"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="64"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="66"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="66"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="66"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="66"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13" xr:uid="{4198B594-5181-47A6-A694-0EB0F270F4C0}">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C881BC2-09BE-482B-8637-64316B291B6B}">
+  <dimension ref="A1:S16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="21.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="9" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="9" width="16.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="9" width="12.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="10.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="9" width="11.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="9" width="15.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="9" width="20.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="9" width="10.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="9" width="19.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="9" width="8.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="9" width="19.42578125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="9" width="27.28515625" collapsed="true"/>
+    <col min="13" max="16384" style="9" width="21.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="72" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>407</v>
+      </c>
+      <c r="G1" s="72" t="s">
+        <v>408</v>
+      </c>
+      <c r="H1" s="72" t="s">
+        <v>412</v>
+      </c>
+      <c r="I1" s="72" t="s">
+        <v>409</v>
+      </c>
+      <c r="J1" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="72" t="s">
+        <v>410</v>
+      </c>
+      <c r="L1" s="72" t="s">
+        <v>415</v>
+      </c>
+      <c r="M1" s="72" t="s">
+        <v>416</v>
+      </c>
+      <c r="N1" s="72" t="s">
+        <v>417</v>
+      </c>
+      <c r="O1" s="72" t="s">
+        <v>418</v>
+      </c>
+      <c r="P1" s="72" t="s">
+        <v>419</v>
+      </c>
+      <c r="Q1" s="72" t="s">
+        <v>420</v>
+      </c>
+      <c r="R1" s="80" t="s">
+        <v>421</v>
+      </c>
+      <c r="S1" s="81" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="76" t="s">
+        <v>371</v>
+      </c>
+      <c r="B2" s="76" t="s">
+        <v>372</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74" t="s">
+        <v>425</v>
+      </c>
+      <c r="F2" s="74">
+        <v>10031</v>
+      </c>
+      <c r="G2" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="H2" s="74">
+        <v>14</v>
+      </c>
+      <c r="I2" s="74">
+        <v>52</v>
+      </c>
+      <c r="J2" s="74" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="75" t="s">
+        <v>374</v>
+      </c>
+      <c r="L2" s="77">
+        <v>1129</v>
+      </c>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="55"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="76" t="s">
+        <v>375</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>376</v>
+      </c>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74" t="s">
+        <v>377</v>
+      </c>
+      <c r="F3" s="74">
+        <v>20056</v>
+      </c>
+      <c r="G3" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="H3" s="74">
+        <v>22</v>
+      </c>
+      <c r="I3" s="74">
+        <v>63</v>
+      </c>
+      <c r="J3" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="K3" s="75" t="s">
+        <v>374</v>
+      </c>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77">
+        <v>98765</v>
+      </c>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="55"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4" s="76" t="s">
+        <v>380</v>
+      </c>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74" t="s">
+        <v>427</v>
+      </c>
+      <c r="F4" s="74">
+        <v>30055</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>381</v>
+      </c>
+      <c r="H4" s="74">
+        <v>88</v>
+      </c>
+      <c r="I4" s="74">
+        <v>74</v>
+      </c>
+      <c r="J4" s="74" t="s">
+        <v>382</v>
+      </c>
+      <c r="K4" s="75" t="s">
+        <v>374</v>
+      </c>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77">
+        <v>2129</v>
+      </c>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="55"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="76" t="s">
+        <v>383</v>
+      </c>
+      <c r="B5" s="76" t="s">
+        <v>384</v>
+      </c>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="77" t="s">
+        <v>411</v>
+      </c>
+      <c r="F5" s="77" t="s">
+        <v>411</v>
+      </c>
+      <c r="G5" s="78"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="55"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="76" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" s="76" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="77" t="s">
+        <v>426</v>
+      </c>
+      <c r="F6" s="77">
+        <v>4029</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>413</v>
+      </c>
+      <c r="H6" s="77">
+        <v>50</v>
+      </c>
+      <c r="I6" s="77">
+        <v>48</v>
+      </c>
+      <c r="J6" s="77" t="s">
+        <v>428</v>
+      </c>
+      <c r="K6" s="79"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
+      <c r="S6" s="55"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
+        <v>387</v>
+      </c>
+      <c r="B7" s="76" t="s">
+        <v>388</v>
+      </c>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="77">
+        <v>7029</v>
+      </c>
+      <c r="P7" s="77"/>
+      <c r="Q7" s="77"/>
+      <c r="R7" s="77"/>
+      <c r="S7" s="55"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="76" t="s">
+        <v>389</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>390</v>
+      </c>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="78" t="s">
+        <v>414</v>
+      </c>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="55"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
+        <v>391</v>
+      </c>
+      <c r="B9" s="76" t="s">
+        <v>392</v>
+      </c>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77">
+        <v>6029</v>
+      </c>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="55"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="76" t="s">
+        <v>393</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="77"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="77">
+        <v>5029</v>
+      </c>
+      <c r="R10" s="77"/>
+      <c r="S10" s="55"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="76" t="s">
+        <v>395</v>
+      </c>
+      <c r="B11" s="76" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="55"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="76" t="s">
+        <v>397</v>
+      </c>
+      <c r="B12" s="76" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="S12" s="55" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="76" t="s">
+        <v>399</v>
+      </c>
+      <c r="B13" s="76" t="s">
+        <v>400</v>
+      </c>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="77"/>
+      <c r="P13" s="77"/>
+      <c r="Q13" s="77"/>
+      <c r="R13" s="77" t="s">
+        <v>424</v>
+      </c>
+      <c r="S13" s="55" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="76" t="s">
+        <v>401</v>
+      </c>
+      <c r="B14" s="76" t="s">
+        <v>402</v>
+      </c>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="78"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="77"/>
+      <c r="P14" s="77"/>
+      <c r="Q14" s="77"/>
+      <c r="R14" s="77"/>
+      <c r="S14" s="55"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="76" t="s">
+        <v>403</v>
+      </c>
+      <c r="B15" s="76" t="s">
+        <v>404</v>
+      </c>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="79"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="77"/>
+      <c r="R15" s="77"/>
+      <c r="S15" s="55"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="76" t="s">
+        <v>405</v>
+      </c>
+      <c r="B16" s="76" t="s">
+        <v>406</v>
+      </c>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="79"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="77"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="77"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="77"/>
+      <c r="R16" s="77"/>
+      <c r="S16" s="55"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="13.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -3535,46 +5186,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3582,7 +5233,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N46"/>
   <sheetViews>
@@ -3593,22 +5244,22 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.140625" customWidth="1"/>
-    <col min="5" max="7" width="13.85546875" style="10"/>
-    <col min="8" max="8" width="19.42578125" style="10" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="19"/>
-    <col min="10" max="10" width="39.140625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="16" style="19" customWidth="1"/>
-    <col min="12" max="12" width="25.42578125" style="8" customWidth="1"/>
-    <col min="13" max="13" width="13.85546875" style="10"/>
+    <col min="2" max="2" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="5" max="7" style="10" width="13.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="10" width="19.42578125" collapsed="true"/>
+    <col min="9" max="9" style="19" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="10" width="39.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="19" width="16.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="25.42578125" collapsed="true"/>
+    <col min="13" max="13" style="10" width="13.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>63</v>
-      </c>
-      <c r="B1" s="43" t="s">
-        <v>64</v>
       </c>
       <c r="C1" s="44" t="s">
         <v>0</v>
@@ -3617,50 +5268,50 @@
         <v>1</v>
       </c>
       <c r="E1" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" s="43" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="G1" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="H1" s="44" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="I1" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="J1" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="K1" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="L1" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="M1" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="M1" s="44" t="s">
+      <c r="N1" s="45" t="s">
         <v>183</v>
-      </c>
-      <c r="N1" s="45" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C2" s="30"/>
       <c r="D2" s="6"/>
       <c r="E2" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="37" t="s">
         <v>185</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>186</v>
       </c>
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
@@ -3672,10 +5323,10 @@
     </row>
     <row r="3" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="30"/>
       <c r="D3" s="35"/>
@@ -3692,10 +5343,10 @@
     </row>
     <row r="4" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="6"/>
@@ -3712,10 +5363,10 @@
     </row>
     <row r="5" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="6"/>
@@ -3732,10 +5383,10 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C6" s="30">
         <v>908</v>
@@ -3756,10 +5407,10 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C7" s="30">
         <v>910</v>
@@ -3780,10 +5431,10 @@
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C8" s="30">
         <v>911</v>
@@ -3804,124 +5455,124 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C9" s="30"/>
       <c r="D9" s="6"/>
       <c r="E9" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="F9" s="33" t="s">
+      <c r="G9" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="H9" s="33" t="s">
         <v>187</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="I9" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="I9" s="34" t="s">
-        <v>189</v>
-      </c>
       <c r="J9" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="K9" s="34" t="s">
+        <v>235</v>
+      </c>
+      <c r="L9" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="K9" s="34" t="s">
-        <v>236</v>
-      </c>
-      <c r="L9" s="32" t="s">
-        <v>192</v>
-      </c>
       <c r="M9" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C10" s="30"/>
       <c r="D10" s="6"/>
       <c r="E10" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I10" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J10" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="K10" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="L10" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="K10" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>192</v>
-      </c>
       <c r="M10" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="6"/>
       <c r="E11" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J11" s="40" t="s">
+        <v>190</v>
+      </c>
+      <c r="K11" s="34" t="s">
+        <v>236</v>
+      </c>
+      <c r="L11" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="K11" s="34" t="s">
+      <c r="M11" s="33" t="s">
         <v>237</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="M11" s="33" t="s">
-        <v>238</v>
       </c>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C12" s="30"/>
       <c r="D12" s="6"/>
@@ -3938,10 +5589,10 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C13" s="30"/>
       <c r="D13" s="6"/>
@@ -3958,10 +5609,10 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14" s="30">
         <v>908</v>
@@ -3982,10 +5633,10 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15" s="30">
         <v>910</v>
@@ -4006,10 +5657,10 @@
     </row>
     <row r="16" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C16" s="30">
         <v>911</v>
@@ -4030,10 +5681,10 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" s="30"/>
       <c r="D17" s="6"/>
@@ -4050,10 +5701,10 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18" s="30"/>
       <c r="D18" s="6"/>
@@ -4070,10 +5721,10 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C19" s="30"/>
       <c r="D19" s="6"/>
@@ -4090,10 +5741,10 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="6"/>
@@ -4110,10 +5761,10 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" s="30">
         <v>908</v>
@@ -4134,10 +5785,10 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" s="30">
         <v>910</v>
@@ -4158,10 +5809,10 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C23" s="30">
         <v>911</v>
@@ -4182,10 +5833,10 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C24" s="30"/>
       <c r="D24" s="6"/>
@@ -4202,10 +5853,10 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C25" s="30"/>
       <c r="D25" s="6"/>
@@ -4222,10 +5873,10 @@
     </row>
     <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C26" s="30"/>
       <c r="D26" s="6"/>
@@ -4242,10 +5893,10 @@
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C27" s="30"/>
       <c r="D27" s="6"/>
@@ -4262,10 +5913,10 @@
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28" s="30">
         <v>908</v>
@@ -4286,10 +5937,10 @@
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C29" s="30">
         <v>910</v>
@@ -4310,10 +5961,10 @@
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C30" s="30">
         <v>911</v>
@@ -4334,10 +5985,10 @@
     </row>
     <row r="31" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C31" s="30"/>
       <c r="D31" s="6"/>
@@ -4354,10 +6005,10 @@
     </row>
     <row r="32" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C32" s="30"/>
       <c r="D32" s="6"/>
@@ -4374,10 +6025,10 @@
     </row>
     <row r="33" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C33" s="30"/>
       <c r="D33" s="6"/>
@@ -4394,10 +6045,10 @@
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C34" s="30">
         <v>908</v>
@@ -4418,10 +6069,10 @@
     </row>
     <row r="35" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C35" s="30">
         <v>910</v>
@@ -4442,10 +6093,10 @@
     </row>
     <row r="36" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C36" s="30">
         <v>911</v>
@@ -4466,10 +6117,10 @@
     </row>
     <row r="37" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C37" s="30"/>
       <c r="D37" s="6"/>
@@ -4486,10 +6137,10 @@
     </row>
     <row r="38" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C38" s="30"/>
       <c r="D38" s="6"/>
@@ -4506,10 +6157,10 @@
     </row>
     <row r="39" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C39" s="30"/>
       <c r="D39" s="6"/>
@@ -4526,10 +6177,10 @@
     </row>
     <row r="40" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" s="30"/>
       <c r="D40" s="6"/>
@@ -4546,10 +6197,10 @@
     </row>
     <row r="41" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C41" s="30">
         <v>908</v>
@@ -4570,10 +6221,10 @@
     </row>
     <row r="42" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C42" s="30">
         <v>910</v>
@@ -4594,10 +6245,10 @@
     </row>
     <row r="43" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C43" s="30">
         <v>911</v>
@@ -4618,10 +6269,10 @@
     </row>
     <row r="44" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C44" s="30"/>
       <c r="D44" s="6"/>
@@ -4638,10 +6289,10 @@
     </row>
     <row r="45" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C45" s="30"/>
       <c r="D45" s="6"/>
@@ -4658,10 +6309,10 @@
     </row>
     <row r="46" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C46" s="30"/>
       <c r="D46" s="6"/>
